--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H2">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J2">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N2">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q2">
-        <v>73.29272107799467</v>
+        <v>171.572377825244</v>
       </c>
       <c r="R2">
-        <v>659.634489701952</v>
+        <v>1544.151400427196</v>
       </c>
       <c r="S2">
-        <v>0.01431549078069383</v>
+        <v>0.01971932288196038</v>
       </c>
       <c r="T2">
-        <v>0.01431549078069383</v>
+        <v>0.01971932288196038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H3">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J3">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.03385</v>
       </c>
       <c r="O3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q3">
-        <v>0.04619477906666666</v>
+        <v>0.04743647604999999</v>
       </c>
       <c r="R3">
-        <v>0.4157530116</v>
+        <v>0.42692828445</v>
       </c>
       <c r="S3">
-        <v>9.02273683005069E-06</v>
+        <v>5.45201505900386E-06</v>
       </c>
       <c r="T3">
-        <v>9.02273683005069E-06</v>
+        <v>5.452015059003862E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.094072</v>
+        <v>4.204118999999999</v>
       </c>
       <c r="H4">
-        <v>12.282216</v>
+        <v>12.612357</v>
       </c>
       <c r="I4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="J4">
-        <v>0.0147134235951136</v>
+        <v>0.01983154129720676</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.322187</v>
       </c>
       <c r="O4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q4">
-        <v>0.4396855918213333</v>
+        <v>0.451504162751</v>
       </c>
       <c r="R4">
-        <v>3.957170326392</v>
+        <v>4.063537464758999</v>
       </c>
       <c r="S4">
-        <v>8.587912883496431E-05</v>
+        <v>5.189271420429179E-05</v>
       </c>
       <c r="T4">
-        <v>8.587912883496433E-05</v>
+        <v>5.18927142042918E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.204118999999999</v>
+      </c>
+      <c r="H5">
+        <v>12.612357</v>
+      </c>
+      <c r="I5">
+        <v>0.01983154129720676</v>
+      </c>
+      <c r="J5">
+        <v>0.01983154129720676</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>4.094072</v>
-      </c>
-      <c r="H5">
-        <v>12.282216</v>
-      </c>
-      <c r="I5">
-        <v>0.0147134235951136</v>
-      </c>
-      <c r="J5">
-        <v>0.0147134235951136</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N5">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q5">
-        <v>1.551463595997333</v>
+        <v>0.477440774235</v>
       </c>
       <c r="R5">
-        <v>13.963172363976</v>
+        <v>4.296966968115</v>
       </c>
       <c r="S5">
-        <v>0.0003030309487547492</v>
+        <v>5.487368598308185E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003030309487547492</v>
+        <v>5.487368598308186E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J6">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N6">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q6">
-        <v>3240.676280758639</v>
+        <v>7387.587717068163</v>
       </c>
       <c r="R6">
-        <v>29166.08652682775</v>
+        <v>66488.28945361346</v>
       </c>
       <c r="S6">
-        <v>0.6329669677708571</v>
+        <v>0.8490773943813558</v>
       </c>
       <c r="T6">
-        <v>0.6329669677708571</v>
+        <v>0.8490773943813559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>543.064652</v>
       </c>
       <c r="I7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J7">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.03385</v>
       </c>
       <c r="O7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q7">
         <v>2.042526496688889</v>
@@ -883,10 +883,10 @@
         <v>18.3827384702</v>
       </c>
       <c r="S7">
-        <v>0.0003989450630650903</v>
+        <v>0.0002347536357174707</v>
       </c>
       <c r="T7">
-        <v>0.0003989450630650903</v>
+        <v>0.0002347536357174708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>543.064652</v>
       </c>
       <c r="I8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J8">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.322187</v>
       </c>
       <c r="O8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q8">
         <v>19.44093011488045</v>
@@ -945,10 +945,10 @@
         <v>174.968371033924</v>
       </c>
       <c r="S8">
-        <v>0.003797190931573184</v>
+        <v>0.002234403829568825</v>
       </c>
       <c r="T8">
-        <v>0.003797190931573184</v>
+        <v>0.002234403829568826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>543.064652</v>
       </c>
       <c r="I9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807857</v>
       </c>
       <c r="J9">
-        <v>0.6505617768331835</v>
+        <v>0.8539093107807858</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N9">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q9">
-        <v>68.59878037081913</v>
+        <v>20.55771240146001</v>
       </c>
       <c r="R9">
-        <v>617.3890233373721</v>
+        <v>185.01941161314</v>
       </c>
       <c r="S9">
-        <v>0.01339867306768809</v>
+        <v>0.002362758934143684</v>
       </c>
       <c r="T9">
-        <v>0.01339867306768809</v>
+        <v>0.002362758934143684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H10">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J10">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N10">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q10">
-        <v>538.5415226648987</v>
+        <v>1063.430795740705</v>
       </c>
       <c r="R10">
-        <v>4846.873703984088</v>
+        <v>9570.877161666349</v>
       </c>
       <c r="S10">
-        <v>0.1051876105749451</v>
+        <v>0.1222232593010413</v>
       </c>
       <c r="T10">
-        <v>0.1051876105749451</v>
+        <v>0.1222232593010413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H11">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J11">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.03385</v>
       </c>
       <c r="O11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q11">
-        <v>0.3394307960166666</v>
+        <v>0.2940182453166667</v>
       </c>
       <c r="R11">
-        <v>3.05487716415</v>
+        <v>2.64616420785</v>
       </c>
       <c r="S11">
-        <v>6.62974216210272E-05</v>
+        <v>3.379239004597936E-05</v>
       </c>
       <c r="T11">
-        <v>6.629742162102721E-05</v>
+        <v>3.379239004597937E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H12">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J12">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.322187</v>
       </c>
       <c r="O12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q12">
-        <v>3.230729390730333</v>
+        <v>2.798489110896333</v>
       </c>
       <c r="R12">
-        <v>29.076564516573</v>
+        <v>25.186401998067</v>
       </c>
       <c r="S12">
-        <v>0.0006310241471141476</v>
+        <v>0.0003216386638624506</v>
       </c>
       <c r="T12">
-        <v>0.0006310241471141476</v>
+        <v>0.0003216386638624506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.082493</v>
+        <v>26.057747</v>
       </c>
       <c r="H13">
-        <v>90.247479</v>
+        <v>78.173241</v>
       </c>
       <c r="I13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="J13">
-        <v>0.1081115481862653</v>
+        <v>0.1229188055196976</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N13">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q13">
-        <v>11.39987102482433</v>
+        <v>2.959248038055001</v>
       </c>
       <c r="R13">
-        <v>102.598839223419</v>
+        <v>26.633232342495</v>
       </c>
       <c r="S13">
-        <v>0.002226616042585011</v>
+        <v>0.0003401151647478565</v>
       </c>
       <c r="T13">
-        <v>0.002226616042585011</v>
+        <v>0.0003401151647478565</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H14">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I14">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J14">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N14">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q14">
-        <v>1128.840049972212</v>
+        <v>28.89893831880489</v>
       </c>
       <c r="R14">
-        <v>10159.56044974991</v>
+        <v>260.090444869244</v>
       </c>
       <c r="S14">
-        <v>0.2204843685781371</v>
+        <v>0.003321440798791123</v>
       </c>
       <c r="T14">
-        <v>0.2204843685781371</v>
+        <v>0.003321440798791124</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H15">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I15">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J15">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.03385</v>
       </c>
       <c r="O15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q15">
-        <v>0.7114828859277776</v>
+        <v>0.007990002894444443</v>
       </c>
       <c r="R15">
-        <v>6.403345973349999</v>
+        <v>0.07191002604999999</v>
       </c>
       <c r="S15">
-        <v>0.0001389664150043208</v>
+        <v>9.183147596393923E-07</v>
       </c>
       <c r="T15">
-        <v>0.0001389664150043209</v>
+        <v>9.183147596393927E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H16">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I16">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J16">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.322187</v>
       </c>
       <c r="O16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q16">
-        <v>6.771950858741888</v>
+        <v>0.07604948486122222</v>
       </c>
       <c r="R16">
-        <v>60.94755772867699</v>
+        <v>0.684445363751</v>
       </c>
       <c r="S16">
-        <v>0.001322693422481451</v>
+        <v>8.740593130396954E-06</v>
       </c>
       <c r="T16">
-        <v>0.001322693422481452</v>
+        <v>8.740593130396958E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.05609033333332</v>
+        <v>0.7081243333333332</v>
       </c>
       <c r="H17">
-        <v>189.168271</v>
+        <v>2.124373</v>
       </c>
       <c r="I17">
-        <v>0.2266132513854375</v>
+        <v>0.003340342402309973</v>
       </c>
       <c r="J17">
-        <v>0.2266132513854376</v>
+        <v>0.003340342402309974</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N17">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q17">
-        <v>23.89533663748122</v>
+        <v>0.08041813991500001</v>
       </c>
       <c r="R17">
-        <v>215.058029737331</v>
+        <v>0.723763259235</v>
       </c>
       <c r="S17">
-        <v>0.004667222969814689</v>
+        <v>9.242695628813674E-06</v>
       </c>
       <c r="T17">
-        <v>0.00466722296981469</v>
+        <v>9.242695628813675E-06</v>
       </c>
     </row>
   </sheetData>
